--- a/biology/Microbiologie/Sarcocystidae/Sarcocystidae.xlsx
+++ b/biology/Microbiologie/Sarcocystidae/Sarcocystidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sarcocystidae sont une famille de protistes parasites de l'ordre des Eucoccidiorida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 novembre 2023) :
 Besnoitia Henry, 1913
 Frenkelia Biocca, 1968
 Hammondia Frenkel, 1974
@@ -521,7 +535,7 @@
 Nephroisospora Wünschmann, Wellehan, Armien, Bemrick, Barnes et al., 2010
 Sarcocystis Lankester, 1882
 Toxoplasma Nicolle &amp; Manceaux, 1909
-Selon The Taxonomicon  (21 novembre 2023)[2] :
+Selon The Taxonomicon  (21 novembre 2023) :
 sous-famille des Sarcocystinae Poche, 1913
 Frenkelia Biocca, 1968
 Sarcocystis Lankester, 1882
@@ -557,7 +571,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) F. Poche, « Das System der Protozoen », Archiv für Protistenkunde, vol. 30,‎ 1913, p. 125–321</t>
         </is>
